--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593455.7252146145</v>
+        <v>-596156.2626834388</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>92.72679982914678</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G2" t="n">
         <v>239.8079481415045</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>211.2228407230371</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183517</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>144.0960356154103</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>41.33882601930067</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.83911216837795</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W4" t="n">
-        <v>210.3737218577691</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>175.9205676229323</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.6375786784548</v>
+        <v>139.8403584436314</v>
       </c>
       <c r="H5" t="n">
         <v>308.9865017432183</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020663</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316175</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.0639896953817</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1074921335361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>37.87751757109314</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>96.85195735900766</v>
+        <v>45.1724520630464</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>34.555410331757</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899359013</v>
+        <v>1.261993899359069</v>
       </c>
       <c r="S6" t="n">
         <v>142.096855515207</v>
@@ -1029,10 +1029,10 @@
         <v>193.7444632813737</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8365899360328</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>144.6121747481498</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.2918344467882</v>
+        <v>115.2918344467883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>205.1679776921244</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.99112361440169</v>
+        <v>46.9369395556874</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>175.1273416686138</v>
+        <v>49.66351971072246</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>302.872008200501</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
-        <v>124.7060755345557</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>154.8582550139285</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>127.1947372039743</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>178.513465597807</v>
       </c>
       <c r="W16" t="n">
-        <v>246.2025596887049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113661</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.61213096654769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>34.67929910923735</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,10 +2843,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>105.1162657551297</v>
+        <v>67.96934215963591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.176346405346</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428179</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673014</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>108.5163679066128</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7712912700493</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7712912700493</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7712912700493</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="E2" t="n">
-        <v>474.7712912700493</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="F2" t="n">
-        <v>381.107857099194</v>
+        <v>261.4148864993047</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192959</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605487</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859559</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>643.344321977938</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948971</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P2" t="n">
         <v>924.2476725444232</v>
@@ -4361,19 +4361,19 @@
         <v>959.231792566018</v>
       </c>
       <c r="U2" t="n">
-        <v>717.0015419180337</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V2" t="n">
-        <v>474.7712912700493</v>
+        <v>959.231792566018</v>
       </c>
       <c r="W2" t="n">
-        <v>474.7712912700493</v>
+        <v>959.231792566018</v>
       </c>
       <c r="X2" t="n">
-        <v>474.7712912700493</v>
+        <v>745.8753877952735</v>
       </c>
       <c r="Y2" t="n">
-        <v>474.7712912700493</v>
+        <v>745.8753877952735</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.7191938244354</v>
+        <v>749.2600656274645</v>
       </c>
       <c r="C3" t="n">
-        <v>165.7191938244354</v>
+        <v>574.8070363463376</v>
       </c>
       <c r="D3" t="n">
-        <v>165.7191938244354</v>
+        <v>425.8726266850863</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>266.6351716796308</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132036</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132036</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="H3" t="n">
         <v>19.18463585132036</v>
@@ -4410,49 +4410,49 @@
         <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>86.7924555146772</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303709</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>461.4319221904603</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>660.0886638431247</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367426</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640412</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
         <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682048</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S3" t="n">
-        <v>788.6531038308395</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T3" t="n">
-        <v>643.1015527041625</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U3" t="n">
-        <v>643.1015527041625</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V3" t="n">
-        <v>407.9494444724198</v>
+        <v>959.231792566018</v>
       </c>
       <c r="W3" t="n">
-        <v>165.7191938244354</v>
+        <v>959.231792566018</v>
       </c>
       <c r="X3" t="n">
-        <v>165.7191938244354</v>
+        <v>917.4754026475325</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.7191938244354</v>
+        <v>917.4754026475325</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.950953577229</v>
+        <v>465.9421807489275</v>
       </c>
       <c r="C4" t="n">
-        <v>297.950953577229</v>
+        <v>465.9421807489275</v>
       </c>
       <c r="D4" t="n">
-        <v>297.950953577229</v>
+        <v>315.8255413365918</v>
       </c>
       <c r="E4" t="n">
-        <v>297.950953577229</v>
+        <v>315.8255413365918</v>
       </c>
       <c r="F4" t="n">
-        <v>297.950953577229</v>
+        <v>315.8255413365918</v>
       </c>
       <c r="G4" t="n">
-        <v>297.950953577229</v>
+        <v>315.8255413365918</v>
       </c>
       <c r="H4" t="n">
-        <v>143.6963104769941</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132036</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="J4" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>63.7633601226436</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>248.5963550234618</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557426996</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>659.6893205788037</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674025</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>959.231792566018</v>
+        <v>955.8134731456582</v>
       </c>
       <c r="Q4" t="n">
         <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>959.231792566018</v>
+        <v>936.1619822949292</v>
       </c>
       <c r="S4" t="n">
-        <v>959.231792566018</v>
+        <v>936.1619822949292</v>
       </c>
       <c r="T4" t="n">
-        <v>959.231792566018</v>
+        <v>936.1619822949292</v>
       </c>
       <c r="U4" t="n">
-        <v>959.231792566018</v>
+        <v>936.1619822949292</v>
       </c>
       <c r="V4" t="n">
-        <v>959.231792566018</v>
+        <v>693.9317316469449</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7330836187765</v>
+        <v>693.9317316469449</v>
       </c>
       <c r="X4" t="n">
-        <v>518.7435327207592</v>
+        <v>465.9421807489275</v>
       </c>
       <c r="Y4" t="n">
-        <v>297.950953577229</v>
+        <v>465.9421807489275</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1034.112998188026</v>
+        <v>878.9452244769259</v>
       </c>
       <c r="C5" t="n">
-        <v>1034.112998188026</v>
+        <v>878.9452244769259</v>
       </c>
       <c r="D5" t="n">
-        <v>1034.112998188026</v>
+        <v>878.9452244769259</v>
       </c>
       <c r="E5" t="n">
-        <v>1034.112998188026</v>
+        <v>493.1569718786816</v>
       </c>
       <c r="F5" t="n">
-        <v>856.415455134559</v>
+        <v>486.2114711294782</v>
       </c>
       <c r="G5" t="n">
-        <v>441.6300221260188</v>
+        <v>344.9585838126787</v>
       </c>
       <c r="H5" t="n">
-        <v>129.5224446076164</v>
+        <v>32.85100629427635</v>
       </c>
       <c r="I5" t="n">
-        <v>32.85100629427639</v>
+        <v>32.85100629427635</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7588362828606</v>
+        <v>103.7588362828602</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230124</v>
+        <v>260.769810723012</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340421</v>
+        <v>492.4575702340412</v>
       </c>
       <c r="M5" t="n">
-        <v>781.9242815861708</v>
+        <v>781.9242815861699</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334939</v>
+        <v>1080.688675334938</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.468159143675</v>
+        <v>1349.468159143674</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282345</v>
+        <v>1544.364229282343</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.550314713819</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.550314713819</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="S5" t="n">
-        <v>1499.942777813196</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="T5" t="n">
-        <v>1287.756929636042</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="U5" t="n">
-        <v>1034.112998188026</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="V5" t="n">
-        <v>1034.112998188026</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="W5" t="n">
-        <v>1034.112998188026</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="X5" t="n">
-        <v>1034.112998188026</v>
+        <v>1269.084556452738</v>
       </c>
       <c r="Y5" t="n">
-        <v>1034.112998188026</v>
+        <v>878.9452244769259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611.8352935053649</v>
+        <v>397.040654120821</v>
       </c>
       <c r="C6" t="n">
-        <v>611.8352935053649</v>
+        <v>397.040654120821</v>
       </c>
       <c r="D6" t="n">
-        <v>573.575174746685</v>
+        <v>397.040654120821</v>
       </c>
       <c r="E6" t="n">
-        <v>414.3377197412294</v>
+        <v>397.040654120821</v>
       </c>
       <c r="F6" t="n">
-        <v>267.8031617681144</v>
+        <v>250.506096147706</v>
       </c>
       <c r="G6" t="n">
-        <v>130.68126625287</v>
+        <v>113.3842006324616</v>
       </c>
       <c r="H6" t="n">
-        <v>32.85100629427639</v>
+        <v>67.75546117483898</v>
       </c>
       <c r="I6" t="n">
-        <v>32.85100629427639</v>
+        <v>32.85100629427635</v>
       </c>
       <c r="J6" t="n">
-        <v>56.26537711121848</v>
+        <v>56.26537711121838</v>
       </c>
       <c r="K6" t="n">
-        <v>225.1977888140936</v>
+        <v>225.197788814093</v>
       </c>
       <c r="L6" t="n">
-        <v>430.4194717654344</v>
+        <v>430.4194717654337</v>
       </c>
       <c r="M6" t="n">
-        <v>689.260364260476</v>
+        <v>689.2603642604751</v>
       </c>
       <c r="N6" t="n">
-        <v>969.3606498904949</v>
+        <v>969.3606498904937</v>
       </c>
       <c r="O6" t="n">
-        <v>1203.377894010706</v>
+        <v>1203.377894010704</v>
       </c>
       <c r="P6" t="n">
-        <v>1371.864297498578</v>
+        <v>1371.864297498576</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.550314713819</v>
+        <v>1642.550314713817</v>
       </c>
       <c r="R6" t="n">
-        <v>1641.275573401335</v>
+        <v>1641.275573401334</v>
       </c>
       <c r="S6" t="n">
-        <v>1497.743396113247</v>
+        <v>1497.743396113246</v>
       </c>
       <c r="T6" t="n">
-        <v>1302.041918051254</v>
+        <v>1302.041918051252</v>
       </c>
       <c r="U6" t="n">
-        <v>1073.924150439099</v>
+        <v>1302.041918051252</v>
       </c>
       <c r="V6" t="n">
-        <v>1073.924150439099</v>
+        <v>1066.889809819509</v>
       </c>
       <c r="W6" t="n">
-        <v>819.6867937108977</v>
+        <v>812.6524530913077</v>
       </c>
       <c r="X6" t="n">
-        <v>611.8352935053649</v>
+        <v>604.8009528857749</v>
       </c>
       <c r="Y6" t="n">
-        <v>611.8352935053649</v>
+        <v>397.040654120821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.197352223286</v>
+        <v>611.2064389372028</v>
       </c>
       <c r="C7" t="n">
-        <v>296.197352223286</v>
+        <v>442.270256009296</v>
       </c>
       <c r="D7" t="n">
-        <v>296.197352223286</v>
+        <v>442.270256009296</v>
       </c>
       <c r="E7" t="n">
-        <v>296.197352223286</v>
+        <v>442.270256009296</v>
       </c>
       <c r="F7" t="n">
-        <v>149.3074047253756</v>
+        <v>295.3803085113856</v>
       </c>
       <c r="G7" t="n">
         <v>149.3074047253756</v>
@@ -4720,28 +4720,28 @@
         <v>149.3074047253756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.85100629427639</v>
+        <v>32.85100629427635</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735836</v>
+        <v>33.89295411735829</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779939</v>
+        <v>165.4420311779938</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565143</v>
+        <v>389.305993656514</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409665</v>
+        <v>635.7282771409662</v>
       </c>
       <c r="N7" t="n">
-        <v>881.725805926897</v>
+        <v>881.7258059268966</v>
       </c>
       <c r="O7" t="n">
         <v>1092.92804410002</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.127362942353</v>
+        <v>1250.127362942352</v>
       </c>
       <c r="Q7" t="n">
         <v>1275.528942871347</v>
@@ -4753,22 +4753,22 @@
         <v>1275.528942871347</v>
       </c>
       <c r="T7" t="n">
-        <v>1068.288561364151</v>
+        <v>1275.528942871347</v>
       </c>
       <c r="U7" t="n">
-        <v>1068.288561364151</v>
+        <v>1275.528942871347</v>
       </c>
       <c r="V7" t="n">
-        <v>813.6040731582639</v>
+        <v>1020.84445466546</v>
       </c>
       <c r="W7" t="n">
-        <v>524.1869031213033</v>
+        <v>1020.84445466546</v>
       </c>
       <c r="X7" t="n">
-        <v>296.197352223286</v>
+        <v>792.8549037674426</v>
       </c>
       <c r="Y7" t="n">
-        <v>296.197352223286</v>
+        <v>792.8549037674426</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.250531453059</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.1598801503962</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1598801503962</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>937.3591802289043</v>
+        <v>1260.719061359842</v>
       </c>
       <c r="V10" t="n">
-        <v>937.3591802289043</v>
+        <v>1260.719061359842</v>
       </c>
       <c r="W10" t="n">
-        <v>647.9420101919436</v>
+        <v>971.3018913228819</v>
       </c>
       <c r="X10" t="n">
-        <v>419.9524592939263</v>
+        <v>971.3018913228819</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.1598801503962</v>
+        <v>971.3018913228819</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016.155803409789</v>
+        <v>2228.398316379496</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469377</v>
+        <v>1859.435799439084</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1501.170100832333</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>1115.381848234089</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747751</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592066</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592066</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592066</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656955</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
         <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796033</v>
+        <v>3776.999350345376</v>
       </c>
       <c r="T11" t="n">
-        <v>3750.917562932845</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3497.423621054373</v>
+        <v>3319.526802048268</v>
       </c>
       <c r="V11" t="n">
-        <v>3166.360733710802</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="W11" t="n">
-        <v>3166.360733710802</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="X11" t="n">
-        <v>2792.894975449723</v>
+        <v>2614.998156443618</v>
       </c>
       <c r="Y11" t="n">
-        <v>2402.755643473911</v>
+        <v>2614.998156443618</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592066</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046649</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929972</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749525</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1933.239912720355</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2401.180957052878</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2401.180957052878</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>834.3511830989048</v>
+        <v>926.9545584938321</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989048</v>
+        <v>758.0183755659252</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865689</v>
+        <v>607.9017361535895</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041759</v>
+        <v>459.9886425711964</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>313.098695073286</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>313.098695073286</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592066</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.883436213539</v>
+        <v>1848.271275692259</v>
       </c>
       <c r="V13" t="n">
-        <v>1754.198948007652</v>
+        <v>1593.586787486372</v>
       </c>
       <c r="W13" t="n">
-        <v>1464.781777970692</v>
+        <v>1304.169617449411</v>
       </c>
       <c r="X13" t="n">
-        <v>1236.792227072675</v>
+        <v>1304.169617449411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1015.999647929145</v>
+        <v>1083.377038305881</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.5813165460164</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6451336181095</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.011911417804</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>957.0223605197862</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.2297813762561</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,16 +5595,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>336.3048548543962</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5972,37 +5972,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327646</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048577</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2344.887784772827</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630044</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6491,7 +6491,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656161</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377092</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253735</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400709</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138413</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703106</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7084,7 +7084,7 @@
         <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270444</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,7 +7135,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
         <v>695.5020655703111</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908943</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7585,22 +7585,22 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511391</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
         <v>1491.508541327549</v>
@@ -7609,10 +7609,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>753.3092412490408</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,28 +7646,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7834,7 +7834,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928483</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58.49750737927772</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.287118509957139</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923453</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>49.70416500698943</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>74.51411407702443</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.8901104783981</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104302</v>
+        <v>28.5809535810431</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>51.27141198553829</v>
+        <v>51.27141198553792</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>104.0040375412104</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>77.23274481989347</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.9737251680088</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -23470,7 +23470,7 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>159.0060389160692</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465665</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>73.62417772602097</v>
       </c>
       <c r="W16" t="n">
-        <v>40.32043864788608</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>65.75554125013262</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>146.3469868924072</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>181.4067325814613</v>
+        <v>218.5536561769551</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194277</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>143.6212754172152</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26314,43 +26314,43 @@
         <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.575205892</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>238091.5043891786</v>
+        <v>238091.5043891787</v>
       </c>
       <c r="F2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992518</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="M2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="M2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="O2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="P2" t="n">
         <v>262322.644899252</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800888</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.675170688</v>
+        <v>189098.6751706874</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517681</v>
+        <v>237173.5150517686</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545764</v>
+        <v>313577.1573545773</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704299</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353581</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203376</v>
+        <v>43966.08035203364</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.5803157221</v>
+        <v>58197.58031572227</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273064</v>
+        <v>81897.40371273072</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>49839.57413202371</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.9869351602</v>
+        <v>210476.9869351603</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26433,31 +26433,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="I4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>12996.86414683049</v>
+      </c>
+      <c r="L4" t="n">
         <v>12996.86414683045</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>12996.86414683045</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12996.86414683045</v>
+      </c>
+      <c r="O4" t="n">
         <v>12996.86414683046</v>
       </c>
-      <c r="L4" t="n">
-        <v>12996.86414683049</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>12996.86414683046</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12996.86414683045</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911832</v>
+        <v>74737.94401911829</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673856</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-707616.3790145965</v>
       </c>
       <c r="C6" t="n">
-        <v>-207475.0309190747</v>
+        <v>-207475.030919074</v>
       </c>
       <c r="D6" t="n">
-        <v>-207223.8062685396</v>
+        <v>-207223.8062685401</v>
       </c>
       <c r="E6" t="n">
-        <v>-173514.5836199673</v>
+        <v>-173735.7149339429</v>
       </c>
       <c r="F6" t="n">
-        <v>-41105.01784191545</v>
+        <v>-41139.75576735027</v>
       </c>
       <c r="G6" t="n">
-        <v>148203.2509285143</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="H6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030787</v>
       </c>
       <c r="I6" t="n">
-        <v>148203.2509285143</v>
+        <v>148168.5130030787</v>
       </c>
       <c r="J6" t="n">
-        <v>85458.94014497865</v>
+        <v>85424.20221954287</v>
       </c>
       <c r="K6" t="n">
-        <v>104237.1705764807</v>
+        <v>104202.4326510451</v>
       </c>
       <c r="L6" t="n">
-        <v>90005.67061279231</v>
+        <v>89970.9326873564</v>
       </c>
       <c r="M6" t="n">
-        <v>66305.84721578374</v>
+        <v>66271.10929034799</v>
       </c>
       <c r="N6" t="n">
-        <v>98363.67679649046</v>
+        <v>98328.93887105494</v>
       </c>
       <c r="O6" t="n">
-        <v>148203.2509285143</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="P6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030787</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902876</v>
+        <v>740.5311575902873</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784548</v>
+        <v>410.6375786784544</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490081</v>
+        <v>969.2208239490087</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522232</v>
+        <v>147.0550572522227</v>
       </c>
       <c r="D3" t="n">
-        <v>193.5337345272515</v>
+        <v>193.5337345272518</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974104</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369503</v>
+        <v>170.8296305369498</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215839</v>
+        <v>229.9472534215844</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489694</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369501</v>
+        <v>170.8296305369496</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215839</v>
+        <v>229.9472534215846</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489696</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369503</v>
+        <v>170.8296305369498</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215839</v>
+        <v>229.9472534215844</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489694</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219761</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>314.1492459125647</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G2" t="n">
         <v>173.1089558044323</v>
@@ -27397,7 +27397,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079613</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032863039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>158.5082599554319</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958671</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>50.92336726610301</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941509</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>164.4341591841768</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176906</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677914</v>
+        <v>106.3340694994134</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
@@ -27594,16 +27594,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232349</v>
       </c>
       <c r="W4" t="n">
-        <v>76.14927647882189</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.9554781187791</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>1.688149157925311</v>
+        <v>272.4853693927487</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>95.70472393020668</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.1814615316175</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.0639896953817</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1074921335361</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>109.5675479935456</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>51.67950529596126</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175697</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8365899360328</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6555953037877</v>
+        <v>22.04342055563791</v>
       </c>
       <c r="H7" t="n">
         <v>150.35439427591</v>
@@ -27825,7 +27825,7 @@
         <v>200.7444959205693</v>
       </c>
       <c r="T7" t="n">
-        <v>17.07187986619911</v>
+        <v>222.2398575583235</v>
       </c>
       <c r="U7" t="n">
         <v>286.2461902262361</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>372.7427180490789</v>
+        <v>335.7969021077932</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>111.0998124525868</v>
+        <v>236.5636344104782</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.15987277746899e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.706357804527215e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29563,10 +29563,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31045,37 +31045,37 @@
         <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651553</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937399</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779018</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712527</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
         <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359666</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822515</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426697</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
         <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411495</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810512</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916533</v>
@@ -31121,10 +31121,10 @@
         <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>12.328626159853</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182837</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847382</v>
@@ -31133,34 +31133,34 @@
         <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512819</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842451</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.005087490065</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947074</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671571</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
         <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080797</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308312</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,13 +31200,13 @@
         <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207007</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
         <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490372</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
@@ -31218,7 +31218,7 @@
         <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441089</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714136</v>
@@ -31227,16 +31227,16 @@
         <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104774</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937813</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685359</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.57268470752279</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
         <v>0.05837469839390805</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.977009678754923</v>
+        <v>2.977009678754921</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254886</v>
+        <v>30.48830037254885</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7711656401993</v>
+        <v>114.7711656401992</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6699752222259</v>
+        <v>252.6699752222258</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239218</v>
+        <v>378.6867949239216</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801179</v>
+        <v>469.7944548801177</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546757</v>
+        <v>522.7368507546755</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044382</v>
+        <v>531.195279504438</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113189</v>
+        <v>501.5926395113187</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0977130670567</v>
+        <v>428.0977130670565</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466459</v>
+        <v>321.4835539466458</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330891</v>
+        <v>187.004584233089</v>
       </c>
       <c r="S5" t="n">
-        <v>67.83860805462787</v>
+        <v>67.83860805462784</v>
       </c>
       <c r="T5" t="n">
         <v>13.03185986874968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003938</v>
+        <v>0.2381607743003937</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.592840603118732</v>
+        <v>1.592840603118731</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748881</v>
+        <v>15.3834868774888</v>
       </c>
       <c r="I6" t="n">
-        <v>54.8412225196581</v>
+        <v>54.84122251965807</v>
       </c>
       <c r="J6" t="n">
         <v>150.4885062797395</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886946</v>
+        <v>257.2088266886944</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236528</v>
+        <v>345.8490090236526</v>
       </c>
       <c r="M6" t="n">
-        <v>403.5894808867067</v>
+        <v>403.5894808867066</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277969</v>
+        <v>414.2712935277967</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113239</v>
+        <v>378.9772991113237</v>
       </c>
       <c r="P6" t="n">
-        <v>304.1626937657165</v>
+        <v>304.1626937657164</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595069</v>
+        <v>203.3247057595068</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328412</v>
+        <v>98.89584025328406</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863081</v>
+        <v>29.5863155886308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447869</v>
+        <v>6.420265413447866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047921449420219</v>
+        <v>0.1047921449420218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.33538405467101</v>
       </c>
       <c r="H7" t="n">
-        <v>11.87277823152954</v>
+        <v>11.87277823152953</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048047003</v>
+        <v>40.15864048047001</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524042</v>
+        <v>94.41165266524038</v>
       </c>
       <c r="K7" t="n">
-        <v>155.1473474426865</v>
+        <v>155.1473474426864</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644519</v>
+        <v>198.5351893644518</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972021</v>
+        <v>209.327520497202</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297921</v>
+        <v>204.350179929792</v>
       </c>
       <c r="O7" t="n">
-        <v>188.7504662002262</v>
+        <v>188.7504662002261</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5086314849374</v>
+        <v>161.5086314849373</v>
       </c>
       <c r="Q7" t="n">
         <v>111.8202047961334</v>
       </c>
       <c r="R7" t="n">
-        <v>60.0437230400256</v>
+        <v>60.04372304002557</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640296</v>
+        <v>23.27210211640295</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957952</v>
+        <v>5.705731869957949</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478246</v>
+        <v>0.07283913025478243</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598377</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206138</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.56323703405</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>299.7767623746041</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705364</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292123</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012655</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393757</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605648</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874002</v>
@@ -34720,7 +34720,7 @@
         <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268367</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>239.8079481415045</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067317</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>169.4106666602201</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472405</v>
+        <v>89.75123316395862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.02901441547802</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493113</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233375</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
         <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>66.22227459996876</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553959</v>
+        <v>71.62407069553947</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789413</v>
+        <v>158.5969438789411</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101306</v>
+        <v>234.0280399101305</v>
       </c>
       <c r="M5" t="n">
-        <v>292.390617527403</v>
+        <v>292.3906175274028</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078473</v>
+        <v>301.782215907847</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896322</v>
+        <v>271.4944280896319</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117872</v>
+        <v>196.8647173117869</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.1778640721964</v>
+        <v>99.17786407219629</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.65087961307282</v>
+        <v>23.65087961307276</v>
       </c>
       <c r="K6" t="n">
-        <v>170.6387996998739</v>
+        <v>170.6387996998734</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2946292437786</v>
+        <v>207.2946292437784</v>
       </c>
       <c r="M6" t="n">
-        <v>261.4554469646884</v>
+        <v>261.4554469646882</v>
       </c>
       <c r="N6" t="n">
-        <v>282.9295814444636</v>
+        <v>282.9295814444633</v>
       </c>
       <c r="O6" t="n">
-        <v>236.3810546668795</v>
+        <v>236.3810546668793</v>
       </c>
       <c r="P6" t="n">
-        <v>170.1882863513862</v>
+        <v>170.1882863513861</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.4202194093345</v>
+        <v>273.4202194093344</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05247254856765</v>
+        <v>1.052472548567607</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168036</v>
+        <v>132.8778556168035</v>
       </c>
       <c r="L7" t="n">
-        <v>226.125214624768</v>
+        <v>226.1252146247679</v>
       </c>
       <c r="M7" t="n">
-        <v>248.9113974590427</v>
+        <v>248.9113974590426</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090207</v>
+        <v>248.4823523090206</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142658</v>
+        <v>213.3355941142657</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7871907498309</v>
+        <v>158.7871907498308</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443904</v>
+        <v>25.658161544439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073961</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507167</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>159.7949882885825</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
